--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF93DF-3484-49A4-9408-4DC30B5AF121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC3629-DB0A-4EB9-AB0F-00762094BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="4420" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1120" windowWidth="21360" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>with</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>TBSI Post-Doc Research Day - Runner up talk prize</t>
+  </si>
+  <si>
+    <t>Wiley Top Cited Article Award - Parasite Immunology</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,6 +537,14 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC3629-DB0A-4EB9-AB0F-00762094BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E6A25-2BE7-4A2E-8F79-6BB5B5F66D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1120" windowWidth="21360" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24315" yWindow="2025" windowWidth="19650" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>with</t>
   </si>
@@ -85,13 +85,16 @@
   </si>
   <si>
     <t>Wiley Top Cited Article Award - Parasite Immunology</t>
+  </si>
+  <si>
+    <t>EFIS/EJI Travel/Abstract Award Winners Presenting at Cytokines 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,13 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -485,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -494,7 +507,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -503,7 +516,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -511,7 +524,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -520,7 +533,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -529,7 +542,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -537,7 +550,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -545,7 +558,16 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E6A25-2BE7-4A2E-8F79-6BB5B5F66D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A72DFE-C091-4843-8E98-471303514891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24315" yWindow="2025" windowWidth="19650" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1460" windowWidth="15600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">Visiting student training scheme - Weizmann Institute of Science </t>
   </si>
   <si>
-    <t>Valdicotrian - Biochemistry with Immunology degree</t>
-  </si>
-  <si>
     <t xml:space="preserve">Milstein Travel Award - International Cytokine society </t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>EFIS/EJI Travel/Abstract Award Winners Presenting at Cytokines 2021</t>
+  </si>
+  <si>
+    <t>Valedictorian - Biochemistry with Immunology degree</t>
   </si>
 </sst>
 </file>
@@ -443,17 +443,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -516,51 +516,51 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2021</v>
